--- a/数据整理/stocks/A股/深证主板/001205-盛航股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/001205-盛航股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,17 +595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -614,13 +635,289 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>004258</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004259</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015406</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/001205-盛航股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/001205-盛航股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -864,7 +865,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -875,17 +876,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -895,14 +916,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+          <t>014412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4332</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -911,13 +954,193 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>014413</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004258</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004259</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/001205-盛航股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/001205-盛航股份.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009387</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实稳福混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>44.66</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1708</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009388</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实稳福混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>44.66</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
@@ -580,6 +532,212 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4332</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014413</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004258</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004259</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -859,13 +1017,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,36 +1074,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>014412</t>
+          <t>009387</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商核心竞争力混合A</t>
+          <t>嘉实稳福混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.89</t>
+          <t>44.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4332</t>
+          <t>0.1708</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -954,194 +1112,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014413</t>
+          <t>009388</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商核心竞争力混合C</t>
+          <t>嘉实稳福混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.89</t>
+          <t>44.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1627</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004258</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国寿安保稳嘉混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>21.49</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0199</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004259</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国寿安保稳嘉混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>21.49</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.17</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/001205-盛航股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/001205-盛航股份.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0.62</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -532,6 +549,822 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4532</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1854</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013280</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015601</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>71.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -737,7 +1570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1017,7 +1850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/001205-盛航股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/001205-盛航股份.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>1.56</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>0.62</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -549,6 +566,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>016250</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏远见成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4474</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2066</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>016251</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏远见成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013280</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1364,7 +1741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1570,7 +1947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1850,7 +2227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
